--- a/data/trans_orig/P16A07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Habitat-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>21246</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13613</v>
+        <v>13429</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32385</v>
+        <v>30082</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03065794660779473</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01964387223124096</v>
+        <v>0.01937800044100473</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04673211630519384</v>
+        <v>0.04340937084504679</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>43</v>
@@ -765,19 +765,19 @@
         <v>41948</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30515</v>
+        <v>31510</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55877</v>
+        <v>55636</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06093950695154204</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04433120104306184</v>
+        <v>0.04577606876488297</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08117533583749874</v>
+        <v>0.08082462015650599</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -786,19 +786,19 @@
         <v>63194</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>50244</v>
+        <v>48589</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>79377</v>
+        <v>78598</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04574783613066583</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03637334729970045</v>
+        <v>0.0351749972477335</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05746351139223438</v>
+        <v>0.0568994077867855</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>671748</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>660609</v>
+        <v>662912</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>679381</v>
+        <v>679565</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9693420533922052</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.953267883694806</v>
+        <v>0.9565906291549532</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9803561277687587</v>
+        <v>0.9806219995589953</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>653</v>
@@ -836,19 +836,19 @@
         <v>646403</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>632474</v>
+        <v>632715</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>657836</v>
+        <v>656841</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.939060493048458</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9188246641625012</v>
+        <v>0.9191753798434938</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9556687989569381</v>
+        <v>0.9542239312351168</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1313</v>
@@ -857,19 +857,19 @@
         <v>1318151</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1301968</v>
+        <v>1302747</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1331101</v>
+        <v>1332756</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9542521638693342</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9425364886077663</v>
+        <v>0.9431005922132147</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9636266527002997</v>
+        <v>0.9648250027522665</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>22334</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13871</v>
+        <v>14512</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34468</v>
+        <v>33765</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02322086671580649</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01442194715288654</v>
+        <v>0.01508874418612445</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03583726829601182</v>
+        <v>0.03510644990375097</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -982,19 +982,19 @@
         <v>62942</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>49017</v>
+        <v>47212</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>82036</v>
+        <v>80008</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06499629662601208</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05061675472357046</v>
+        <v>0.04875298660582561</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08471346372724299</v>
+        <v>0.0826188714553877</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>78</v>
@@ -1003,19 +1003,19 @@
         <v>85276</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>68419</v>
+        <v>68034</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>106043</v>
+        <v>105649</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04417992883909813</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03544645806776727</v>
+        <v>0.03524731145436034</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05493912475157944</v>
+        <v>0.0547350439506643</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>939466</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>927332</v>
+        <v>928035</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>947929</v>
+        <v>947288</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9767791332841935</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9641627317039881</v>
+        <v>0.964893550096249</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9855780528471134</v>
+        <v>0.9849112558138755</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>851</v>
@@ -1053,19 +1053,19 @@
         <v>905451</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>886357</v>
+        <v>888385</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>919376</v>
+        <v>921181</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.935003703373988</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.915286536272757</v>
+        <v>0.9173811285446123</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9493832452764296</v>
+        <v>0.9512470133941744</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1726</v>
@@ -1074,19 +1074,19 @@
         <v>1844917</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1824150</v>
+        <v>1824544</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1861774</v>
+        <v>1862159</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9558200711609018</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.945060875248421</v>
+        <v>0.9452649560493357</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9645535419322329</v>
+        <v>0.9647526885456399</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>9685</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4757</v>
+        <v>4835</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17124</v>
+        <v>17510</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01427371857887397</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007011189231131906</v>
+        <v>0.007125721888733639</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02523704452377422</v>
+        <v>0.02580616396380646</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -1199,19 +1199,19 @@
         <v>39298</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28894</v>
+        <v>28489</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52886</v>
+        <v>51366</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05746620806999119</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04225240836468944</v>
+        <v>0.04166086527569578</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07733615633155322</v>
+        <v>0.07511342770125283</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -1220,19 +1220,19 @@
         <v>48983</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37468</v>
+        <v>36239</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>64533</v>
+        <v>62524</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03595448917926264</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02750276844566604</v>
+        <v>0.02660026010515705</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04736856285855572</v>
+        <v>0.04589457143477411</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>668824</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>661385</v>
+        <v>660999</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>673752</v>
+        <v>673674</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9857262814211261</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9747629554762257</v>
+        <v>0.9741938360361941</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9929888107688681</v>
+        <v>0.9928742781112664</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>656</v>
@@ -1270,19 +1270,19 @@
         <v>644543</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>630955</v>
+        <v>632475</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>654947</v>
+        <v>655352</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9425337919300089</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9226638436684469</v>
+        <v>0.9248865722987472</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9577475916353106</v>
+        <v>0.9583391347243042</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1287</v>
@@ -1291,19 +1291,19 @@
         <v>1313367</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1297817</v>
+        <v>1299826</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1324882</v>
+        <v>1326111</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9640455108207374</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9526314371414443</v>
+        <v>0.9541054285652258</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.972497231554334</v>
+        <v>0.973399739894843</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>16835</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10190</v>
+        <v>10150</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26728</v>
+        <v>27098</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01786774705869738</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01081505867742778</v>
+        <v>0.01077249809689771</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02836652175581324</v>
+        <v>0.02876000143872028</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>71</v>
@@ -1416,19 +1416,19 @@
         <v>73993</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>58879</v>
+        <v>58133</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>91897</v>
+        <v>92637</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07124247217598789</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05669029669695401</v>
+        <v>0.0559716071540499</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08848061582649006</v>
+        <v>0.08919313462314175</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>89</v>
@@ -1437,19 +1437,19 @@
         <v>90829</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>74136</v>
+        <v>73275</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>109992</v>
+        <v>110576</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04585375062088459</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03742688683349426</v>
+        <v>0.03699186514565161</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0555283617522331</v>
+        <v>0.05582305351785002</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>925387</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>915494</v>
+        <v>915124</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>932032</v>
+        <v>932072</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9821322529413026</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9716334782441868</v>
+        <v>0.9712399985612796</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9891849413225722</v>
+        <v>0.9892275019031023</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>926</v>
@@ -1487,19 +1487,19 @@
         <v>964619</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>946715</v>
+        <v>945975</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>979733</v>
+        <v>980479</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9287575278240121</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9115193841735099</v>
+        <v>0.9108068653768583</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9433097033030458</v>
+        <v>0.9440283928459497</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1902</v>
@@ -1508,19 +1508,19 @@
         <v>1890005</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1870842</v>
+        <v>1870258</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1906698</v>
+        <v>1907559</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9541462493791154</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.944471638247767</v>
+        <v>0.94417694648215</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9625731131665057</v>
+        <v>0.9630081348543483</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>70100</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55517</v>
+        <v>54636</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>87702</v>
+        <v>87671</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02140109842982431</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01694897188657182</v>
+        <v>0.01668021194223581</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02677481713909925</v>
+        <v>0.02676556389797543</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>211</v>
@@ -1633,19 +1633,19 @@
         <v>218181</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>191588</v>
+        <v>191645</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>247905</v>
+        <v>251510</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06456586112839455</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05669620558517999</v>
+        <v>0.0567132671622901</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07336208737893515</v>
+        <v>0.07442887647006782</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>282</v>
@@ -1654,19 +1654,19 @@
         <v>288281</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>257349</v>
+        <v>253295</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>321761</v>
+        <v>321010</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04331970597573254</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03867166299025256</v>
+        <v>0.03806250496946381</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0483507486051948</v>
+        <v>0.04823790714918692</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3205425</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3187823</v>
+        <v>3187854</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3220008</v>
+        <v>3220889</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9785989015701757</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9732251828609008</v>
+        <v>0.9732344361020245</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9830510281134283</v>
+        <v>0.9833197880577643</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3086</v>
@@ -1704,19 +1704,19 @@
         <v>3161016</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3131292</v>
+        <v>3127687</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3187609</v>
+        <v>3187552</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9354341388716054</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9266379126210648</v>
+        <v>0.9255711235299322</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9433037944148199</v>
+        <v>0.9432867328377098</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6228</v>
@@ -1725,19 +1725,19 @@
         <v>6366441</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6332961</v>
+        <v>6333712</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6397373</v>
+        <v>6401427</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9566802940242675</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9516492513948053</v>
+        <v>0.9517620928508129</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9613283370097477</v>
+        <v>0.961937495030536</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>17921</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10957</v>
+        <v>10988</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27816</v>
+        <v>27649</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02557397567405686</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01563640847859466</v>
+        <v>0.01567956502743309</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03969359551780754</v>
+        <v>0.03945487699686937</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>66</v>
@@ -2090,19 +2090,19 @@
         <v>68032</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53342</v>
+        <v>53118</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>84314</v>
+        <v>84443</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09787783739806746</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07674286986963043</v>
+        <v>0.07642010415423317</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1213028365341861</v>
+        <v>0.1214879348222074</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>84</v>
@@ -2111,19 +2111,19 @@
         <v>85954</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>69047</v>
+        <v>69530</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>107150</v>
+        <v>106267</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06157852379531058</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04946615091460121</v>
+        <v>0.04981255113277314</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07676365566546901</v>
+        <v>0.07613124893405011</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>682843</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>672948</v>
+        <v>673115</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>689807</v>
+        <v>689776</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9744260243259432</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9603064044821924</v>
+        <v>0.9605451230031304</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9843635915214053</v>
+        <v>0.9843204349725669</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>582</v>
@@ -2161,19 +2161,19 @@
         <v>627041</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>610759</v>
+        <v>610630</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>641731</v>
+        <v>641955</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9021221626019326</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8786971634658138</v>
+        <v>0.8785120651777923</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9232571301303696</v>
+        <v>0.9235798958457667</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1235</v>
@@ -2182,19 +2182,19 @@
         <v>1309883</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1288687</v>
+        <v>1289570</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1326790</v>
+        <v>1326307</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9384214762046894</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9232363443345312</v>
+        <v>0.92386875106595</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9505338490853988</v>
+        <v>0.9501874488672268</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>36229</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24857</v>
+        <v>25856</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49947</v>
+        <v>52112</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03559060427886485</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02441916143184466</v>
+        <v>0.02540041499329234</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0490662726219722</v>
+        <v>0.05119330614304226</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>77</v>
@@ -2307,19 +2307,19 @@
         <v>83336</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>66276</v>
+        <v>67177</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>103556</v>
+        <v>101636</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08116926775937554</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06455324989632297</v>
+        <v>0.06543061575827885</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1008634220403443</v>
+        <v>0.09899316505084003</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>110</v>
@@ -2328,19 +2328,19 @@
         <v>119565</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>98989</v>
+        <v>97687</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>144455</v>
+        <v>141078</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.058477439250367</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04841402110025872</v>
+        <v>0.04777691351945003</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07065075436596953</v>
+        <v>0.06899877850209221</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>981718</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>968000</v>
+        <v>965835</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>993090</v>
+        <v>992091</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9644093957211352</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9509337273780272</v>
+        <v>0.9488066938569577</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9755808385681553</v>
+        <v>0.9745995850067075</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>858</v>
@@ -2378,19 +2378,19 @@
         <v>943359</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>923139</v>
+        <v>925059</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>960419</v>
+        <v>959518</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9188307322406245</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8991365779596561</v>
+        <v>0.90100683494916</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9354467501036772</v>
+        <v>0.9345693842417213</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1761</v>
@@ -2399,19 +2399,19 @@
         <v>1925077</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1900187</v>
+        <v>1903564</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1945653</v>
+        <v>1946955</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.941522560749633</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9293492456340305</v>
+        <v>0.9310012214979078</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9515859788997413</v>
+        <v>0.95222308648055</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>16217</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8196</v>
+        <v>8320</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28587</v>
+        <v>29691</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0214655280497521</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01084820750565144</v>
+        <v>0.01101249355226261</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03783835474260865</v>
+        <v>0.03929947888196707</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -2524,19 +2524,19 @@
         <v>55661</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42658</v>
+        <v>42450</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>71880</v>
+        <v>70878</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07170244117652393</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05495171422661242</v>
+        <v>0.05468405012279313</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09259566242782417</v>
+        <v>0.09130429707697366</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>65</v>
@@ -2545,19 +2545,19 @@
         <v>71879</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55930</v>
+        <v>55369</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>91894</v>
+        <v>90558</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04692485152009458</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03651318878021063</v>
+        <v>0.03614650940572416</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05999194593542088</v>
+        <v>0.05911975330905172</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>739280</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>726910</v>
+        <v>725806</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>747301</v>
+        <v>747177</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9785344719502479</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9621616452573917</v>
+        <v>0.9607005211180331</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9891517924943485</v>
+        <v>0.9889875064477374</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>651</v>
@@ -2595,19 +2595,19 @@
         <v>720622</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>704403</v>
+        <v>705405</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>733625</v>
+        <v>733833</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9282975588234761</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9074043375721759</v>
+        <v>0.9086957029230265</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9450482857733876</v>
+        <v>0.945315949877207</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1326</v>
@@ -2616,19 +2616,19 @@
         <v>1459901</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1439886</v>
+        <v>1441222</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1475850</v>
+        <v>1476411</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9530751484799054</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9400080540645791</v>
+        <v>0.9408802466909483</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9634868112197893</v>
+        <v>0.9638534905942758</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>37464</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25413</v>
+        <v>26468</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53532</v>
+        <v>52537</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03968947671596701</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02692216326036764</v>
+        <v>0.02804016415823979</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05671158688267266</v>
+        <v>0.05565719661541124</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>85</v>
@@ -2741,19 +2741,19 @@
         <v>89575</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>72298</v>
+        <v>73326</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>111320</v>
+        <v>108347</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08541057621749873</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06893609521298215</v>
+        <v>0.06991625241741158</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1061437238424427</v>
+        <v>0.1033089816435352</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>117</v>
@@ -2762,19 +2762,19 @@
         <v>127040</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>106513</v>
+        <v>107346</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>150710</v>
+        <v>152788</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0637525794713181</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0534516422783511</v>
+        <v>0.05386950539499981</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07563089423037841</v>
+        <v>0.07667372191611538</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>906475</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>890407</v>
+        <v>891402</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>918526</v>
+        <v>917471</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.960310523284033</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9432884131173273</v>
+        <v>0.9443428033845884</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9730778367396321</v>
+        <v>0.97195983584176</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>915</v>
@@ -2812,19 +2812,19 @@
         <v>959188</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>937443</v>
+        <v>940416</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>976465</v>
+        <v>975437</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9145894237825013</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8938562761575571</v>
+        <v>0.8966910183564648</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9310639047870178</v>
+        <v>0.9300837475825884</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1790</v>
@@ -2833,19 +2833,19 @@
         <v>1865663</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1841993</v>
+        <v>1839915</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1886190</v>
+        <v>1885357</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9362474205286819</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9243691057696217</v>
+        <v>0.9233262780838847</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9465483577216489</v>
+        <v>0.9461304946050003</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>107832</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>86787</v>
+        <v>85970</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>132308</v>
+        <v>129924</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03154699536532063</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02538995448569331</v>
+        <v>0.02515105171171897</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03870741165667632</v>
+        <v>0.03801009333163842</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>281</v>
@@ -2958,19 +2958,19 @@
         <v>296605</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>262999</v>
+        <v>264561</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>329649</v>
+        <v>329977</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08362580029635214</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07415071258014891</v>
+        <v>0.07459121020473394</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09294212985307433</v>
+        <v>0.09303465425225178</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>376</v>
@@ -2979,19 +2979,19 @@
         <v>404437</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>366093</v>
+        <v>369625</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>449085</v>
+        <v>449055</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05806743999953558</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05256217387374502</v>
+        <v>0.05306928403960113</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06447780230015633</v>
+        <v>0.06447346357131743</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3310315</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3285839</v>
+        <v>3288223</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3331360</v>
+        <v>3332177</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9684530046346793</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9612925883433239</v>
+        <v>0.9619899066683617</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9746100455143067</v>
+        <v>0.9748489482882811</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3006</v>
@@ -3029,19 +3029,19 @@
         <v>3250210</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3217166</v>
+        <v>3216838</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3283816</v>
+        <v>3282254</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9163741997036479</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9070578701469256</v>
+        <v>0.9069653457477481</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9258492874198512</v>
+        <v>0.9254087897952655</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6112</v>
@@ -3050,19 +3050,19 @@
         <v>6560524</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6515876</v>
+        <v>6515906</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6598868</v>
+        <v>6595336</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9419325600004644</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9355221976998437</v>
+        <v>0.9355265364286828</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9474378261262549</v>
+        <v>0.946930715960399</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>12538</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6485</v>
+        <v>6667</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21691</v>
+        <v>21294</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01858025474510651</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009609854474119993</v>
+        <v>0.009880432931343932</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03214487306415288</v>
+        <v>0.03155535858650779</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -3415,19 +3415,19 @@
         <v>56821</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43531</v>
+        <v>43239</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>74903</v>
+        <v>73370</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08444918651048715</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06469784375182722</v>
+        <v>0.06426402376975783</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1113234048823913</v>
+        <v>0.1090459105158702</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>66</v>
@@ -3436,19 +3436,19 @@
         <v>69359</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53561</v>
+        <v>54198</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>89369</v>
+        <v>86074</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05146679640487308</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03974419319912124</v>
+        <v>0.04021687087725624</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06631516259773629</v>
+        <v>0.06387034842550587</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>662262</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>653109</v>
+        <v>653506</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>668315</v>
+        <v>668133</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9814197452548935</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9678551269358473</v>
+        <v>0.9684446414134922</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9903901455258801</v>
+        <v>0.990119567068656</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>612</v>
@@ -3486,19 +3486,19 @@
         <v>616018</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>597936</v>
+        <v>599469</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>629308</v>
+        <v>629600</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9155508134895128</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8886765951176088</v>
+        <v>0.8909540894841301</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.935302156248173</v>
+        <v>0.9357359762302423</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1252</v>
@@ -3507,19 +3507,19 @@
         <v>1278280</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1258270</v>
+        <v>1261565</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1294078</v>
+        <v>1293441</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9485332035951269</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9336848374022638</v>
+        <v>0.9361296515744942</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9602558068008787</v>
+        <v>0.959783129122744</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>17593</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11091</v>
+        <v>10472</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27703</v>
+        <v>27033</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01720661998669733</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01084737254653757</v>
+        <v>0.01024186546564964</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02709524233405961</v>
+        <v>0.02644040499520584</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -3632,19 +3632,19 @@
         <v>75956</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59898</v>
+        <v>59199</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>95300</v>
+        <v>93964</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07283090808417159</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05743295078893854</v>
+        <v>0.0567627752582282</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0913782764737032</v>
+        <v>0.09009773430364845</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>85</v>
@@ -3653,19 +3653,19 @@
         <v>93549</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75703</v>
+        <v>75746</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>114964</v>
+        <v>113500</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04529457698435983</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03665391866743598</v>
+        <v>0.03667471316994896</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05566355732326567</v>
+        <v>0.05495440972177037</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>1004838</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>994728</v>
+        <v>995398</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1011340</v>
+        <v>1011959</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9827933800133026</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9729047576659403</v>
+        <v>0.9735595950047941</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9891526274534622</v>
+        <v>0.9897581345343504</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>909</v>
@@ -3703,19 +3703,19 @@
         <v>966957</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>947613</v>
+        <v>948949</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>983015</v>
+        <v>983714</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9271690919158284</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9086217235262967</v>
+        <v>0.9099022656963514</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9425670492110615</v>
+        <v>0.9432372247417717</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1843</v>
@@ -3724,19 +3724,19 @@
         <v>1971795</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1950380</v>
+        <v>1951844</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1989641</v>
+        <v>1989598</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9547054230156402</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9443364426767343</v>
+        <v>0.9450455902782297</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9633460813325641</v>
+        <v>0.9633252868300511</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>15601</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8944</v>
+        <v>8975</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25168</v>
+        <v>25924</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02054008276501521</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01177533275625984</v>
+        <v>0.01181598564957035</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03313589834854778</v>
+        <v>0.03413110926593309</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -3849,19 +3849,19 @@
         <v>42692</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31175</v>
+        <v>31816</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56974</v>
+        <v>57784</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05438373450041956</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03971337307176127</v>
+        <v>0.04052937137268148</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07257776709425562</v>
+        <v>0.07360895005825026</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -3870,19 +3870,19 @@
         <v>58293</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43116</v>
+        <v>44121</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76221</v>
+        <v>74691</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03774082667896966</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02791468585995951</v>
+        <v>0.02856565553552765</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04934803993712346</v>
+        <v>0.04835763999010944</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>743951</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>734384</v>
+        <v>733628</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>750608</v>
+        <v>750577</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9794599172349848</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9668641016514523</v>
+        <v>0.9658688907340665</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9882246672437401</v>
+        <v>0.9881840143504297</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>698</v>
@@ -3920,19 +3920,19 @@
         <v>742319</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>728037</v>
+        <v>727227</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>753836</v>
+        <v>753195</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9456162654995804</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9274222329057441</v>
+        <v>0.9263910499417497</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9602866269282382</v>
+        <v>0.9594706286273184</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1379</v>
@@ -3941,19 +3941,19 @@
         <v>1486270</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1468342</v>
+        <v>1469872</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1501447</v>
+        <v>1500442</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9622591733210304</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9506519600628766</v>
+        <v>0.9516423600098906</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9720853141400404</v>
+        <v>0.9714343444644723</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>28475</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19399</v>
+        <v>20090</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40899</v>
+        <v>40449</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03037123687177298</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02069101324390584</v>
+        <v>0.02142781255925925</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04362244705589934</v>
+        <v>0.04314283095128385</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -4066,19 +4066,19 @@
         <v>76223</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>60021</v>
+        <v>59416</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>95715</v>
+        <v>94359</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07302555250086451</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05750337198173905</v>
+        <v>0.05692424810787483</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09170043182163125</v>
+        <v>0.09040123925627919</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -4087,19 +4087,19 @@
         <v>104698</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>85088</v>
+        <v>85997</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>127999</v>
+        <v>126488</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05284165808463842</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04294450024744296</v>
+        <v>0.04340316447593826</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06460196159768741</v>
+        <v>0.06383942251627694</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>909092</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>896668</v>
+        <v>897118</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>918168</v>
+        <v>917477</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.969628763128227</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9563775529441012</v>
+        <v>0.9568571690487165</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9793089867560942</v>
+        <v>0.9785721874407409</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>892</v>
@@ -4137,19 +4137,19 @@
         <v>967556</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>948064</v>
+        <v>949420</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>983758</v>
+        <v>984363</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9269744474991355</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9082995681783689</v>
+        <v>0.909598760743721</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.942496628018261</v>
+        <v>0.9430757518921252</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1795</v>
@@ -4158,19 +4158,19 @@
         <v>1876648</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1853347</v>
+        <v>1854858</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1896258</v>
+        <v>1895349</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9471583419153616</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9353980384023133</v>
+        <v>0.9361605774837233</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9570554997525572</v>
+        <v>0.9565968355240619</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>74207</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>58795</v>
+        <v>59990</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>94802</v>
+        <v>93511</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02186187853666031</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01732134187047071</v>
+        <v>0.01767339873282708</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02792932627635689</v>
+        <v>0.02754892388969554</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>227</v>
@@ -4283,19 +4283,19 @@
         <v>251691</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>220800</v>
+        <v>220349</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>282448</v>
+        <v>285672</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07100815138412862</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06229299708715007</v>
+        <v>0.06216570752465153</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07968540229842778</v>
+        <v>0.08059476433475893</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>300</v>
@@ -4304,19 +4304,19 @@
         <v>325898</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>289720</v>
+        <v>290895</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>364473</v>
+        <v>367374</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04696689812950272</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04175302855274349</v>
+        <v>0.04192243259504641</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05252616199498613</v>
+        <v>0.05294411666640923</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3320143</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3299548</v>
+        <v>3300839</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3335555</v>
+        <v>3334360</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9781381214633397</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9720706737236435</v>
+        <v>0.9724510761103045</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9826786581295295</v>
+        <v>0.9823266012671731</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3111</v>
@@ -4354,19 +4354,19 @@
         <v>3292851</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3262094</v>
+        <v>3258870</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3323742</v>
+        <v>3324193</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9289918486158714</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9203145977015722</v>
+        <v>0.9194052356652411</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.93770700291285</v>
+        <v>0.9378342924753486</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6269</v>
@@ -4375,19 +4375,19 @@
         <v>6612994</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6574419</v>
+        <v>6571518</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6649172</v>
+        <v>6647997</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9530331018704973</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9474738380050139</v>
+        <v>0.9470558833335907</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9582469714472566</v>
+        <v>0.9580775674049535</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>33577</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24015</v>
+        <v>22862</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46918</v>
+        <v>47885</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04864715359294226</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03479291856347008</v>
+        <v>0.03312284545624149</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06797561478293106</v>
+        <v>0.06937761028253601</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>91</v>
@@ -4740,19 +4740,19 @@
         <v>48849</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38759</v>
+        <v>39398</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59652</v>
+        <v>60192</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06666286301552014</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05289303997473506</v>
+        <v>0.05376451506464799</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08140517265668805</v>
+        <v>0.08214225765782464</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>126</v>
@@ -4761,19 +4761,19 @@
         <v>82426</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>67549</v>
+        <v>66640</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>98825</v>
+        <v>99257</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05792446853453852</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04746944167162773</v>
+        <v>0.04683060925491938</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06944854281364418</v>
+        <v>0.06975174165826521</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>656638</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>643297</v>
+        <v>642330</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>666200</v>
+        <v>667353</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9513528464070576</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.932024385217069</v>
+        <v>0.930622389717464</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9652070814365298</v>
+        <v>0.9668771545437586</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1147</v>
@@ -4811,19 +4811,19 @@
         <v>683933</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>673130</v>
+        <v>672590</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>694023</v>
+        <v>693384</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.93333713698448</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9185948273433127</v>
+        <v>0.9178577423421752</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.947106960025265</v>
+        <v>0.9462354849353519</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1841</v>
@@ -4832,19 +4832,19 @@
         <v>1340571</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1324172</v>
+        <v>1323740</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1355448</v>
+        <v>1356357</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9420755314654614</v>
+        <v>0.9420755314654616</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9305514571863557</v>
+        <v>0.9302482583417349</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9525305583283721</v>
+        <v>0.9531693907450806</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>26756</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17884</v>
+        <v>17657</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39342</v>
+        <v>38263</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02550815858867018</v>
+        <v>0.02550815858867017</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01705042736997075</v>
+        <v>0.01683358867415654</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03750743348015215</v>
+        <v>0.03647837471759893</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>105</v>
@@ -4957,19 +4957,19 @@
         <v>69020</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56778</v>
+        <v>57186</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>83480</v>
+        <v>83180</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06445434677472058</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05302172830849256</v>
+        <v>0.05340279493885479</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07795730654655174</v>
+        <v>0.07767734070772876</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>133</v>
@@ -4978,19 +4978,19 @@
         <v>95776</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79774</v>
+        <v>79620</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>114189</v>
+        <v>115162</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04518262853874819</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03763376831437856</v>
+        <v>0.03756093857293621</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05386906772847942</v>
+        <v>0.05432789431416338</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1022161</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1009575</v>
+        <v>1010654</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1031033</v>
+        <v>1031260</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9744918414113298</v>
+        <v>0.9744918414113299</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9624925665198477</v>
+        <v>0.9635216252824007</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.982949572630029</v>
+        <v>0.9831664113258434</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1411</v>
@@ -5028,19 +5028,19 @@
         <v>1001818</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>987358</v>
+        <v>987658</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1014060</v>
+        <v>1013652</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9355456532252796</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9220426934534481</v>
+        <v>0.9223226592922713</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9469782716915075</v>
+        <v>0.9465972050611453</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2347</v>
@@ -5049,19 +5049,19 @@
         <v>2023979</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2005566</v>
+        <v>2004593</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2039981</v>
+        <v>2040135</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9548173714612518</v>
+        <v>0.954817371461252</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9461309322715207</v>
+        <v>0.9456721056858367</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9623662316856216</v>
+        <v>0.9624390614270638</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>26739</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17198</v>
+        <v>17633</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40052</v>
+        <v>38214</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03333638940840724</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02144188604073267</v>
+        <v>0.02198352721943955</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04993448562841355</v>
+        <v>0.04764315613781146</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>97</v>
@@ -5174,19 +5174,19 @@
         <v>67242</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>55173</v>
+        <v>55241</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>81099</v>
+        <v>80985</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08284444449586956</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06797465524248798</v>
+        <v>0.06805908534041569</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09991667910478168</v>
+        <v>0.09977606391466036</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>122</v>
@@ -5195,19 +5195,19 @@
         <v>93980</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>77303</v>
+        <v>79045</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>112511</v>
+        <v>112766</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05823732390732888</v>
+        <v>0.05823732390732889</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04790284773481971</v>
+        <v>0.04898211419897137</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06972008078550489</v>
+        <v>0.06987805453379864</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>775347</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>762034</v>
+        <v>763872</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>784888</v>
+        <v>784453</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9666636105915928</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9500655143715865</v>
+        <v>0.9523568438621888</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.978558113959267</v>
+        <v>0.9780164727805605</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>949</v>
@@ -5245,19 +5245,19 @@
         <v>744421</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>730564</v>
+        <v>730678</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>756490</v>
+        <v>756422</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9171555555041305</v>
+        <v>0.9171555555041304</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9000833208952183</v>
+        <v>0.9002239360853393</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9320253447575121</v>
+        <v>0.9319409146595842</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1599</v>
@@ -5266,19 +5266,19 @@
         <v>1519768</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1501237</v>
+        <v>1500982</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1536445</v>
+        <v>1534703</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9417626760926709</v>
+        <v>0.9417626760926711</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9302799192144949</v>
+        <v>0.9301219454662012</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9520971522651802</v>
+        <v>0.9510178858010283</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>34683</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24361</v>
+        <v>24675</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46718</v>
+        <v>46466</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03503076350631824</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02460540637996434</v>
+        <v>0.02492313584737434</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04718717708473118</v>
+        <v>0.04693242344605649</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>158</v>
@@ -5391,19 +5391,19 @@
         <v>101146</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>86135</v>
+        <v>85999</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>117614</v>
+        <v>118327</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09054877584164325</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07711043363426398</v>
+        <v>0.07698854206258161</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1052918354499883</v>
+        <v>0.1059297134195691</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>199</v>
@@ -5412,19 +5412,19 @@
         <v>135828</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>117518</v>
+        <v>115559</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>155494</v>
+        <v>153961</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06446246200671658</v>
+        <v>0.0644624620067166</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05577253467415136</v>
+        <v>0.05484307223746463</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07379551146179776</v>
+        <v>0.07306813606558052</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>955379</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>943344</v>
+        <v>943596</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>965701</v>
+        <v>965387</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9649692364936818</v>
+        <v>0.9649692364936817</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.952812822915269</v>
+        <v>0.9530675765539435</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9753945936200357</v>
+        <v>0.9750768641526257</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1401</v>
@@ -5462,19 +5462,19 @@
         <v>1015885</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>999417</v>
+        <v>998704</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1030896</v>
+        <v>1031032</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9094512241583568</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8947081645500119</v>
+        <v>0.8940702865804309</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9228895663657359</v>
+        <v>0.9230114579374183</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2366</v>
@@ -5483,19 +5483,19 @@
         <v>1971265</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1951599</v>
+        <v>1953132</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1989575</v>
+        <v>1991534</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9355375379932834</v>
+        <v>0.9355375379932838</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9262044885382021</v>
+        <v>0.9269318639344197</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9442274653258487</v>
+        <v>0.9451569277625353</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>121754</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>101963</v>
+        <v>101313</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>144919</v>
+        <v>145241</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.03447877504063267</v>
+        <v>0.03447877504063266</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.028874175203278</v>
+        <v>0.02869012686092539</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04103873602857809</v>
+        <v>0.04112993669365869</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>451</v>
@@ -5608,19 +5608,19 @@
         <v>286257</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>260436</v>
+        <v>258279</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>316295</v>
+        <v>312387</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07669694002990696</v>
+        <v>0.07669694002990694</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06977869451680188</v>
+        <v>0.06920088941080593</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08474513491205733</v>
+        <v>0.08369801475756017</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>580</v>
@@ -5629,19 +5629,19 @@
         <v>408011</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>377483</v>
+        <v>372553</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>445208</v>
+        <v>442586</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05617209173434062</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05196923747121174</v>
+        <v>0.05129042724910409</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06129302740981669</v>
+        <v>0.06093205075749934</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3409526</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3386361</v>
+        <v>3386039</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3429317</v>
+        <v>3429967</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9655212249593674</v>
+        <v>0.9655212249593673</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9589612639714221</v>
+        <v>0.9588700633063409</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9711258247967223</v>
+        <v>0.9713098731390747</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4908</v>
@@ -5679,19 +5679,19 @@
         <v>3446056</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3416018</v>
+        <v>3419926</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3471877</v>
+        <v>3474034</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9233030599700932</v>
+        <v>0.9233030599700931</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9152548650879437</v>
+        <v>0.9163019852424402</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9302213054831984</v>
+        <v>0.9307991105891942</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8153</v>
@@ -5700,19 +5700,19 @@
         <v>6855582</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6818385</v>
+        <v>6821007</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6886110</v>
+        <v>6891040</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9438279082656592</v>
+        <v>0.9438279082656594</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9387069725901829</v>
+        <v>0.9390679492425003</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.948030762528788</v>
+        <v>0.9487095727508955</v>
       </c>
     </row>
     <row r="18">
